--- a/Toolbox_Infrastruktur_Fussverkehrstest/FussverkehrstestApp/Querung.xlsx
+++ b/Toolbox_Infrastruktur_Fussverkehrstest/FussverkehrstestApp/Querung.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10520"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11011"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F541339E-D5F4-464F-8CFC-9E7132CA62AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D43FBFE2-3162-8D4B-9C9E-771B62F45473}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7640" yWindow="460" windowWidth="39780" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4277" uniqueCount="1868">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4276" uniqueCount="1865">
   <si>
     <t>type</t>
   </si>
@@ -4338,54 +4338,6 @@
     <t>Detailfoto</t>
   </si>
   <si>
-    <t>zum Erhebungszeitpunkt: keine/kaum Lärmbelastung = 2P, wenig störend = 1P, unangenehm hoch = 0P</t>
-  </si>
-  <si>
-    <t>4 Zugänge oder von allen möglichen Seiten = 2P, min. 3 Seiten = 1P, sonst = 0P</t>
-  </si>
-  <si>
-    <t>Platz für Aktivitäten vorhanden</t>
-  </si>
-  <si>
-    <t>viel Freiraum oder zur Bewegung animierende Gestaltung = 2P, nur eingeschränkt nutzbar oder wenig Platz = 1P, kein Freiraum = 0P</t>
-  </si>
-  <si>
-    <t>Bemerkungen: Platz für Aktivitäten vorhanden</t>
-  </si>
-  <si>
-    <t>z.B. gute Situation um den Platz herum, Aussicht: angenehm = 2P, in Ordnung = 1P, unangenehm = 0P</t>
-  </si>
-  <si>
-    <t>Bänke, Mauern, Rasenflächen: ja = 2P, vorhanden, aber Anzahl/Ausgestaltung ungenügend = 1P, keine Sitzgelegenheiten = 0P</t>
-  </si>
-  <si>
-    <t>sauber, gepflegt, kein Vandalismus, Abfallkübel vorhanden: einladend und sauber = 2P, mangelhaft = 1P, ungepflegt = 0P</t>
-  </si>
-  <si>
-    <t>Gestaltungskonzept erkennbar: einladend, erkennbares Konzept = 2P, teilweise/ zu wenig = 1P, keines oder Neugestaltung notwendig = 0P</t>
-  </si>
-  <si>
-    <t>Schattenspender, Wetterschutz, Mikroklima, dichter, schattenspendender Baumbestand = 2P, nur punktuell Bäume = 1P, kein Schutz, keine Bäume = 0P</t>
-  </si>
-  <si>
-    <t>Wasser/Brunnen/Schaukel, Grill, etc.: mehrere vorhanden = 2P,einzelne vorhanden = 1P, nicht vorhanden/unbenutzbar = 0P</t>
-  </si>
-  <si>
-    <t>bis 6 m Höhe = 2P, darüber = 1P, keine = 0P</t>
-  </si>
-  <si>
-    <t>von allen Seiten = 2P, eingeschränkt/teilweise = 1P, schlecht/nicht einsehbar = 0P</t>
-  </si>
-  <si>
-    <t>während Erhebungszeitpunkt: belebt = 2P, wenig belebt = 1P, unbelebt = 0P</t>
-  </si>
-  <si>
-    <t>Umwege kleiner 3 m: von allen möglichen Seiten = 2P, min. 3 Seiten = 1P, sonst 0P</t>
-  </si>
-  <si>
-    <t>taktil erfassbar = 2P, vorhanden, aber Zustand schlecht/ nur teilweise/ oder mit Umwegen vorhanden = 1P, keine = 0P</t>
-  </si>
-  <si>
     <t>2P</t>
   </si>
   <si>
@@ -5629,6 +5581,45 @@
   </si>
   <si>
     <t>&lt;p title='Fussverkehrstest'&gt;Fussverkehrstest Fussverkehr: Querung&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Gute Sicht in beide Richtungen</t>
+  </si>
+  <si>
+    <t>Bemerkungen: Gute Sicht in beide Richtungen</t>
+  </si>
+  <si>
+    <t>Verlängerung Begehungsstrecke, kein Versatz, keine Umwege, beachte z.B. Kreisel: Alles richtig = 2P, Umweg &lt; 3 m = 1P,  &gt;3 m = 0P</t>
+  </si>
+  <si>
+    <t>auch für Kinder auf 1.2m Höhe, Sichtfeld frei von parkenden Autos, Bäume etc.: gegeben = 2P, teilweise = 1P, nicht gegeben = 0P</t>
+  </si>
+  <si>
+    <t>FGS oder Begegnungszone vorhanden = 2P, nicht vorhanden = 0P</t>
+  </si>
+  <si>
+    <t>kein vernachlässigter Zustand hinsichtlich Markierung usw.: gegeben = 2P, kleinere Mängel = 1P, grössere Mängel/nicht gegeben = 0P</t>
+  </si>
+  <si>
+    <t>bei Tramtrassee beidseits: ab 2 m = 2P, unter 2 m = 1P, unter 1.5 m = 0P</t>
+  </si>
+  <si>
+    <t>bei Fällen mit Schutzinsel: bis 3.5 m = 2P, eher darüber = 1P / bei Fällen ohne Schutzinsel: bis 6 m = 2P, bis 8 m = 1P,  darüber = 0P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aufemerksamkeitsfelder vorhanden = 2P, sonstige Führungshilfen zusätzlich zur Absenkung (Kontrast etc.) = 1P,  keine = 0P </t>
+  </si>
+  <si>
+    <t>ganze Breite des FGS: beidseitig = 2P, 2-4cm oder nur einseitig = 1P, nichts = 0P</t>
+  </si>
+  <si>
+    <t>auch auf Mittelinsel: Durchschnittswert aller Warteräume &gt; 1.50 m zusätzlich zur Gehfläche = 2P, unter 1.50 m = 1P, keine = 0P</t>
+  </si>
+  <si>
+    <t>keine beobachtet = 2P, Veloinfrastruktur z.B. Parkplätze bedingen Querung = 1P, störenden Velos beobachtet = 0P</t>
+  </si>
+  <si>
+    <t>unmittelbar an der Querung vorhanden = 2P, bis 3m entfernt = 1P, darüber = 0P</t>
   </si>
 </sst>
 </file>
@@ -6078,9 +6069,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF241"/>
   <sheetViews>
-    <sheetView topLeftCell="A222" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="L1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="M240" sqref="M240"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D71" sqref="D71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6290,7 +6281,7 @@
         <v>36</v>
       </c>
       <c r="E4" t="s">
-        <v>1456</v>
+        <v>1440</v>
       </c>
       <c r="G4" t="s">
         <v>36</v>
@@ -6322,10 +6313,10 @@
         <v>43</v>
       </c>
       <c r="B5" t="s">
-        <v>1460</v>
+        <v>1444</v>
       </c>
       <c r="C5" t="s">
-        <v>1467</v>
+        <v>1451</v>
       </c>
       <c r="D5" t="s">
         <v>36</v>
@@ -6360,13 +6351,13 @@
         <v>1434</v>
       </c>
       <c r="B6" t="s">
-        <v>1461</v>
+        <v>1445</v>
       </c>
       <c r="C6" t="s">
-        <v>1468</v>
+        <v>1452</v>
       </c>
       <c r="D6" t="s">
-        <v>1438</v>
+        <v>1854</v>
       </c>
       <c r="E6" t="s">
         <v>36</v>
@@ -6398,13 +6389,13 @@
         <v>102</v>
       </c>
       <c r="B7" t="s">
-        <v>1462</v>
+        <v>1446</v>
       </c>
       <c r="C7" t="s">
-        <v>1457</v>
+        <v>1441</v>
       </c>
       <c r="M7" s="21" t="s">
-        <v>1465</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.2">
@@ -6412,13 +6403,13 @@
         <v>102</v>
       </c>
       <c r="B8" t="s">
-        <v>1463</v>
+        <v>1447</v>
       </c>
       <c r="C8" t="s">
         <v>46</v>
       </c>
       <c r="M8" s="21" t="s">
-        <v>1466</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.2">
@@ -6426,10 +6417,10 @@
         <v>45</v>
       </c>
       <c r="B9" t="s">
-        <v>1464</v>
+        <v>1448</v>
       </c>
       <c r="C9" t="s">
-        <v>1469</v>
+        <v>1453</v>
       </c>
       <c r="D9" t="s">
         <v>36</v>
@@ -6464,13 +6455,13 @@
         <v>1434</v>
       </c>
       <c r="B11" t="s">
-        <v>1470</v>
+        <v>1454</v>
       </c>
       <c r="C11" t="s">
-        <v>1439</v>
+        <v>1852</v>
       </c>
       <c r="D11" t="s">
-        <v>1440</v>
+        <v>1855</v>
       </c>
       <c r="E11" t="s">
         <v>36</v>
@@ -6502,13 +6493,13 @@
         <v>102</v>
       </c>
       <c r="B12" t="s">
-        <v>1471</v>
+        <v>1455</v>
       </c>
       <c r="C12" t="s">
-        <v>1457</v>
+        <v>1441</v>
       </c>
       <c r="M12" s="21" t="s">
-        <v>1474</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.2">
@@ -6516,13 +6507,13 @@
         <v>102</v>
       </c>
       <c r="B13" t="s">
-        <v>1472</v>
+        <v>1456</v>
       </c>
       <c r="C13" t="s">
-        <v>1458</v>
+        <v>1442</v>
       </c>
       <c r="M13" s="21" t="s">
-        <v>1475</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="14" spans="1:32" x14ac:dyDescent="0.2">
@@ -6530,10 +6521,10 @@
         <v>45</v>
       </c>
       <c r="B14" t="s">
-        <v>1473</v>
+        <v>1457</v>
       </c>
       <c r="C14" t="s">
-        <v>1441</v>
+        <v>1853</v>
       </c>
       <c r="D14" t="s">
         <v>36</v>
@@ -6568,13 +6559,13 @@
         <v>1434</v>
       </c>
       <c r="B16" t="s">
-        <v>1476</v>
+        <v>1460</v>
       </c>
       <c r="C16" t="s">
-        <v>1480</v>
+        <v>1464</v>
       </c>
       <c r="D16" t="s">
-        <v>1442</v>
+        <v>1856</v>
       </c>
       <c r="E16" t="s">
         <v>36</v>
@@ -6606,13 +6597,13 @@
         <v>102</v>
       </c>
       <c r="B17" t="s">
-        <v>1477</v>
+        <v>1461</v>
       </c>
       <c r="C17" t="s">
-        <v>1457</v>
+        <v>1441</v>
       </c>
       <c r="M17" s="21" t="s">
-        <v>1482</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="18" spans="1:32" x14ac:dyDescent="0.2">
@@ -6620,13 +6611,13 @@
         <v>102</v>
       </c>
       <c r="B18" t="s">
-        <v>1478</v>
+        <v>1462</v>
       </c>
       <c r="C18" t="s">
         <v>46</v>
       </c>
       <c r="M18" s="21" t="s">
-        <v>1483</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="19" spans="1:32" x14ac:dyDescent="0.2">
@@ -6634,10 +6625,10 @@
         <v>45</v>
       </c>
       <c r="B19" t="s">
-        <v>1479</v>
+        <v>1463</v>
       </c>
       <c r="C19" t="s">
-        <v>1481</v>
+        <v>1465</v>
       </c>
       <c r="D19" t="s">
         <v>36</v>
@@ -6672,13 +6663,13 @@
         <v>1434</v>
       </c>
       <c r="B21" t="s">
-        <v>1494</v>
+        <v>1478</v>
       </c>
       <c r="C21" t="s">
-        <v>1495</v>
+        <v>1479</v>
       </c>
       <c r="D21" t="s">
-        <v>1443</v>
+        <v>1857</v>
       </c>
       <c r="E21" t="s">
         <v>36</v>
@@ -6710,13 +6701,13 @@
         <v>102</v>
       </c>
       <c r="B22" t="s">
-        <v>1496</v>
+        <v>1480</v>
       </c>
       <c r="C22" t="s">
-        <v>1457</v>
+        <v>1441</v>
       </c>
       <c r="M22" s="21" t="s">
-        <v>1560</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="23" spans="1:32" x14ac:dyDescent="0.2">
@@ -6724,13 +6715,13 @@
         <v>102</v>
       </c>
       <c r="B23" t="s">
-        <v>1497</v>
+        <v>1481</v>
       </c>
       <c r="C23" t="s">
         <v>46</v>
       </c>
       <c r="M23" s="21" t="s">
-        <v>1561</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="24" spans="1:32" x14ac:dyDescent="0.2">
@@ -6738,10 +6729,10 @@
         <v>45</v>
       </c>
       <c r="B24" t="s">
-        <v>1498</v>
+        <v>1482</v>
       </c>
       <c r="C24" t="s">
-        <v>1499</v>
+        <v>1483</v>
       </c>
       <c r="D24" t="s">
         <v>36</v>
@@ -6776,13 +6767,13 @@
         <v>1434</v>
       </c>
       <c r="B26" t="s">
-        <v>1500</v>
+        <v>1484</v>
       </c>
       <c r="C26" t="s">
-        <v>1501</v>
+        <v>1485</v>
       </c>
       <c r="D26" t="s">
-        <v>1437</v>
+        <v>1858</v>
       </c>
       <c r="E26" t="s">
         <v>36</v>
@@ -6814,13 +6805,13 @@
         <v>102</v>
       </c>
       <c r="B27" t="s">
-        <v>1502</v>
+        <v>1486</v>
       </c>
       <c r="C27" t="s">
-        <v>1457</v>
+        <v>1441</v>
       </c>
       <c r="M27" s="21" t="s">
-        <v>1562</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="28" spans="1:32" x14ac:dyDescent="0.2">
@@ -6828,13 +6819,13 @@
         <v>102</v>
       </c>
       <c r="B28" t="s">
-        <v>1503</v>
+        <v>1487</v>
       </c>
       <c r="C28" t="s">
         <v>46</v>
       </c>
       <c r="M28" s="21" t="s">
-        <v>1563</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="29" spans="1:32" x14ac:dyDescent="0.2">
@@ -6842,10 +6833,10 @@
         <v>45</v>
       </c>
       <c r="B29" t="s">
-        <v>1504</v>
+        <v>1488</v>
       </c>
       <c r="C29" t="s">
-        <v>1505</v>
+        <v>1489</v>
       </c>
       <c r="D29" t="s">
         <v>36</v>
@@ -6880,13 +6871,13 @@
         <v>1434</v>
       </c>
       <c r="B31" t="s">
-        <v>1506</v>
+        <v>1490</v>
       </c>
       <c r="C31" t="s">
-        <v>1507</v>
+        <v>1491</v>
       </c>
       <c r="D31" t="s">
-        <v>1444</v>
+        <v>1859</v>
       </c>
       <c r="E31" t="s">
         <v>36</v>
@@ -6918,13 +6909,13 @@
         <v>102</v>
       </c>
       <c r="B32" t="s">
-        <v>1508</v>
+        <v>1492</v>
       </c>
       <c r="C32" t="s">
-        <v>1457</v>
+        <v>1441</v>
       </c>
       <c r="M32" s="21" t="s">
-        <v>1564</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="33" spans="1:32" x14ac:dyDescent="0.2">
@@ -6932,13 +6923,13 @@
         <v>102</v>
       </c>
       <c r="B33" t="s">
-        <v>1509</v>
+        <v>1493</v>
       </c>
       <c r="C33" t="s">
         <v>46</v>
       </c>
       <c r="M33" s="21" t="s">
-        <v>1565</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="34" spans="1:32" x14ac:dyDescent="0.2">
@@ -6946,10 +6937,10 @@
         <v>45</v>
       </c>
       <c r="B34" t="s">
-        <v>1510</v>
+        <v>1494</v>
       </c>
       <c r="C34" t="s">
-        <v>1511</v>
+        <v>1495</v>
       </c>
       <c r="D34" t="s">
         <v>36</v>
@@ -6984,13 +6975,13 @@
         <v>1434</v>
       </c>
       <c r="B36" t="s">
-        <v>1512</v>
+        <v>1496</v>
       </c>
       <c r="C36" t="s">
-        <v>1513</v>
+        <v>1497</v>
       </c>
       <c r="D36" t="s">
-        <v>1445</v>
+        <v>1860</v>
       </c>
       <c r="E36" t="s">
         <v>36</v>
@@ -7022,13 +7013,13 @@
         <v>102</v>
       </c>
       <c r="B37" t="s">
-        <v>1514</v>
+        <v>1498</v>
       </c>
       <c r="C37" t="s">
-        <v>1457</v>
+        <v>1441</v>
       </c>
       <c r="M37" s="21" t="s">
-        <v>1566</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="38" spans="1:32" x14ac:dyDescent="0.2">
@@ -7036,13 +7027,13 @@
         <v>102</v>
       </c>
       <c r="B38" t="s">
-        <v>1515</v>
+        <v>1499</v>
       </c>
       <c r="C38" t="s">
         <v>46</v>
       </c>
       <c r="M38" s="21" t="s">
-        <v>1567</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="39" spans="1:32" x14ac:dyDescent="0.2">
@@ -7050,10 +7041,10 @@
         <v>45</v>
       </c>
       <c r="B39" t="s">
-        <v>1516</v>
+        <v>1500</v>
       </c>
       <c r="C39" t="s">
-        <v>1517</v>
+        <v>1501</v>
       </c>
       <c r="D39" t="s">
         <v>36</v>
@@ -7088,13 +7079,13 @@
         <v>1434</v>
       </c>
       <c r="B41" t="s">
-        <v>1518</v>
+        <v>1502</v>
       </c>
       <c r="C41" t="s">
-        <v>1519</v>
+        <v>1503</v>
       </c>
       <c r="D41" t="s">
-        <v>1446</v>
+        <v>1861</v>
       </c>
       <c r="E41" t="s">
         <v>36</v>
@@ -7126,13 +7117,13 @@
         <v>102</v>
       </c>
       <c r="B42" t="s">
-        <v>1520</v>
+        <v>1504</v>
       </c>
       <c r="C42" t="s">
-        <v>1457</v>
+        <v>1441</v>
       </c>
       <c r="M42" s="21" t="s">
-        <v>1568</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="43" spans="1:32" x14ac:dyDescent="0.2">
@@ -7140,13 +7131,13 @@
         <v>102</v>
       </c>
       <c r="B43" t="s">
-        <v>1521</v>
+        <v>1505</v>
       </c>
       <c r="C43" t="s">
         <v>46</v>
       </c>
       <c r="M43" s="21" t="s">
-        <v>1569</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="44" spans="1:32" x14ac:dyDescent="0.2">
@@ -7154,10 +7145,10 @@
         <v>45</v>
       </c>
       <c r="B44" t="s">
-        <v>1522</v>
+        <v>1506</v>
       </c>
       <c r="C44" t="s">
-        <v>1523</v>
+        <v>1507</v>
       </c>
       <c r="D44" t="s">
         <v>36</v>
@@ -7192,13 +7183,13 @@
         <v>1434</v>
       </c>
       <c r="B46" t="s">
-        <v>1524</v>
+        <v>1508</v>
       </c>
       <c r="C46" t="s">
-        <v>1525</v>
+        <v>1509</v>
       </c>
       <c r="D46" t="s">
-        <v>1447</v>
+        <v>1630</v>
       </c>
       <c r="E46" t="s">
         <v>36</v>
@@ -7230,13 +7221,13 @@
         <v>102</v>
       </c>
       <c r="B47" t="s">
-        <v>1526</v>
+        <v>1510</v>
       </c>
       <c r="C47" t="s">
-        <v>1457</v>
+        <v>1441</v>
       </c>
       <c r="M47" s="21" t="s">
-        <v>1570</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="48" spans="1:32" x14ac:dyDescent="0.2">
@@ -7244,13 +7235,13 @@
         <v>102</v>
       </c>
       <c r="B48" t="s">
-        <v>1527</v>
+        <v>1511</v>
       </c>
       <c r="C48" t="s">
         <v>46</v>
       </c>
       <c r="M48" s="21" t="s">
-        <v>1571</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="49" spans="1:32" x14ac:dyDescent="0.2">
@@ -7258,10 +7249,10 @@
         <v>45</v>
       </c>
       <c r="B49" t="s">
-        <v>1528</v>
+        <v>1512</v>
       </c>
       <c r="C49" t="s">
-        <v>1529</v>
+        <v>1513</v>
       </c>
       <c r="D49" t="s">
         <v>36</v>
@@ -7296,13 +7287,13 @@
         <v>1434</v>
       </c>
       <c r="B51" t="s">
-        <v>1530</v>
+        <v>1514</v>
       </c>
       <c r="C51" t="s">
-        <v>1531</v>
+        <v>1515</v>
       </c>
       <c r="D51" t="s">
-        <v>1448</v>
+        <v>1862</v>
       </c>
       <c r="E51" t="s">
         <v>36</v>
@@ -7334,13 +7325,13 @@
         <v>102</v>
       </c>
       <c r="B52" t="s">
-        <v>1532</v>
+        <v>1516</v>
       </c>
       <c r="C52" t="s">
-        <v>1457</v>
+        <v>1441</v>
       </c>
       <c r="M52" s="21" t="s">
-        <v>1572</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="53" spans="1:32" x14ac:dyDescent="0.2">
@@ -7348,13 +7339,13 @@
         <v>102</v>
       </c>
       <c r="B53" t="s">
-        <v>1533</v>
+        <v>1517</v>
       </c>
       <c r="C53" t="s">
         <v>46</v>
       </c>
       <c r="M53" s="21" t="s">
-        <v>1573</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="54" spans="1:32" x14ac:dyDescent="0.2">
@@ -7362,10 +7353,10 @@
         <v>45</v>
       </c>
       <c r="B54" t="s">
-        <v>1534</v>
+        <v>1518</v>
       </c>
       <c r="C54" t="s">
-        <v>1535</v>
+        <v>1519</v>
       </c>
       <c r="D54" t="s">
         <v>36</v>
@@ -7400,13 +7391,13 @@
         <v>1434</v>
       </c>
       <c r="B56" t="s">
-        <v>1536</v>
+        <v>1520</v>
       </c>
       <c r="C56" t="s">
-        <v>1537</v>
+        <v>1521</v>
       </c>
       <c r="D56" t="s">
-        <v>1449</v>
+        <v>1646</v>
       </c>
       <c r="E56" t="s">
         <v>36</v>
@@ -7438,13 +7429,13 @@
         <v>102</v>
       </c>
       <c r="B57" t="s">
-        <v>1538</v>
+        <v>1522</v>
       </c>
       <c r="C57" t="s">
-        <v>1457</v>
+        <v>1441</v>
       </c>
       <c r="M57" s="21" t="s">
-        <v>1574</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="58" spans="1:32" x14ac:dyDescent="0.2">
@@ -7452,13 +7443,13 @@
         <v>102</v>
       </c>
       <c r="B58" t="s">
-        <v>1539</v>
+        <v>1523</v>
       </c>
       <c r="C58" t="s">
         <v>46</v>
       </c>
       <c r="M58" s="21" t="s">
-        <v>1575</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="59" spans="1:32" x14ac:dyDescent="0.2">
@@ -7466,10 +7457,10 @@
         <v>45</v>
       </c>
       <c r="B59" t="s">
-        <v>1540</v>
+        <v>1524</v>
       </c>
       <c r="C59" t="s">
-        <v>1541</v>
+        <v>1525</v>
       </c>
       <c r="D59" t="s">
         <v>36</v>
@@ -7504,13 +7495,13 @@
         <v>1434</v>
       </c>
       <c r="B61" t="s">
-        <v>1542</v>
+        <v>1526</v>
       </c>
       <c r="C61" t="s">
-        <v>1543</v>
+        <v>1527</v>
       </c>
       <c r="D61" t="s">
-        <v>1450</v>
+        <v>1863</v>
       </c>
       <c r="E61" t="s">
         <v>36</v>
@@ -7542,13 +7533,13 @@
         <v>102</v>
       </c>
       <c r="B62" t="s">
-        <v>1544</v>
+        <v>1528</v>
       </c>
       <c r="C62" t="s">
-        <v>1457</v>
+        <v>1441</v>
       </c>
       <c r="M62" s="21" t="s">
-        <v>1576</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="63" spans="1:32" x14ac:dyDescent="0.2">
@@ -7556,13 +7547,13 @@
         <v>102</v>
       </c>
       <c r="B63" t="s">
-        <v>1545</v>
+        <v>1529</v>
       </c>
       <c r="C63" t="s">
         <v>46</v>
       </c>
       <c r="M63" s="21" t="s">
-        <v>1577</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="64" spans="1:32" x14ac:dyDescent="0.2">
@@ -7570,10 +7561,10 @@
         <v>45</v>
       </c>
       <c r="B64" t="s">
-        <v>1546</v>
+        <v>1530</v>
       </c>
       <c r="C64" t="s">
-        <v>1547</v>
+        <v>1531</v>
       </c>
       <c r="D64" t="s">
         <v>36</v>
@@ -7608,13 +7599,13 @@
         <v>1434</v>
       </c>
       <c r="B66" t="s">
-        <v>1548</v>
+        <v>1532</v>
       </c>
       <c r="C66" t="s">
-        <v>1549</v>
+        <v>1533</v>
       </c>
       <c r="D66" t="s">
-        <v>1451</v>
+        <v>1864</v>
       </c>
       <c r="E66" t="s">
         <v>36</v>
@@ -7646,13 +7637,13 @@
         <v>102</v>
       </c>
       <c r="B67" t="s">
-        <v>1550</v>
+        <v>1534</v>
       </c>
       <c r="C67" t="s">
-        <v>1457</v>
+        <v>1441</v>
       </c>
       <c r="M67" s="21" t="s">
-        <v>1578</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="68" spans="1:32" x14ac:dyDescent="0.2">
@@ -7660,13 +7651,13 @@
         <v>102</v>
       </c>
       <c r="B68" t="s">
-        <v>1551</v>
+        <v>1535</v>
       </c>
       <c r="C68" t="s">
         <v>46</v>
       </c>
       <c r="M68" s="21" t="s">
-        <v>1579</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="69" spans="1:32" x14ac:dyDescent="0.2">
@@ -7674,10 +7665,10 @@
         <v>45</v>
       </c>
       <c r="B69" t="s">
-        <v>1552</v>
+        <v>1536</v>
       </c>
       <c r="C69" t="s">
-        <v>1553</v>
+        <v>1537</v>
       </c>
       <c r="D69" t="s">
         <v>36</v>
@@ -7712,13 +7703,10 @@
         <v>1434</v>
       </c>
       <c r="B71" t="s">
-        <v>1554</v>
+        <v>1538</v>
       </c>
       <c r="C71" t="s">
-        <v>1555</v>
-      </c>
-      <c r="D71" t="s">
-        <v>1452</v>
+        <v>1539</v>
       </c>
       <c r="E71" t="s">
         <v>36</v>
@@ -7750,13 +7738,13 @@
         <v>102</v>
       </c>
       <c r="B72" t="s">
-        <v>1556</v>
+        <v>1540</v>
       </c>
       <c r="C72" t="s">
-        <v>1457</v>
+        <v>1441</v>
       </c>
       <c r="M72" s="21" t="s">
-        <v>1580</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="73" spans="1:32" x14ac:dyDescent="0.2">
@@ -7764,13 +7752,13 @@
         <v>102</v>
       </c>
       <c r="B73" t="s">
-        <v>1557</v>
+        <v>1541</v>
       </c>
       <c r="C73" t="s">
         <v>46</v>
       </c>
       <c r="M73" s="21" t="s">
-        <v>1581</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="74" spans="1:32" x14ac:dyDescent="0.2">
@@ -7778,10 +7766,10 @@
         <v>45</v>
       </c>
       <c r="B74" t="s">
-        <v>1558</v>
+        <v>1542</v>
       </c>
       <c r="C74" t="s">
-        <v>1559</v>
+        <v>1543</v>
       </c>
       <c r="D74" t="s">
         <v>36</v>
@@ -7816,13 +7804,13 @@
         <v>60</v>
       </c>
       <c r="B76" t="s">
-        <v>1490</v>
+        <v>1474</v>
       </c>
       <c r="C76" t="s">
-        <v>1486</v>
+        <v>1470</v>
       </c>
       <c r="M76" t="s">
-        <v>1484</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="77" spans="1:32" x14ac:dyDescent="0.2">
@@ -7830,13 +7818,13 @@
         <v>60</v>
       </c>
       <c r="B77" t="s">
-        <v>1491</v>
+        <v>1475</v>
       </c>
       <c r="C77" t="s">
-        <v>1487</v>
+        <v>1471</v>
       </c>
       <c r="M77" t="s">
-        <v>1485</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="78" spans="1:32" x14ac:dyDescent="0.2">
@@ -7844,13 +7832,13 @@
         <v>62</v>
       </c>
       <c r="B78" t="s">
-        <v>1492</v>
+        <v>1476</v>
       </c>
       <c r="C78" t="s">
-        <v>1488</v>
+        <v>1472</v>
       </c>
       <c r="M78" t="s">
-        <v>1865</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="79" spans="1:32" x14ac:dyDescent="0.2">
@@ -7858,13 +7846,13 @@
         <v>60</v>
       </c>
       <c r="B79" t="s">
-        <v>1493</v>
+        <v>1477</v>
       </c>
       <c r="C79" t="s">
-        <v>1489</v>
+        <v>1473</v>
       </c>
       <c r="M79" t="s">
-        <v>1582</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.2">
@@ -7877,10 +7865,10 @@
         <v>43</v>
       </c>
       <c r="B83" t="s">
-        <v>1583</v>
+        <v>1567</v>
       </c>
       <c r="C83" t="s">
-        <v>1584</v>
+        <v>1568</v>
       </c>
       <c r="D83" t="s">
         <v>36</v>
@@ -7909,13 +7897,13 @@
         <v>1434</v>
       </c>
       <c r="B84" t="s">
-        <v>1585</v>
+        <v>1569</v>
       </c>
       <c r="C84" t="s">
-        <v>1586</v>
+        <v>1570</v>
       </c>
       <c r="D84" t="s">
-        <v>1587</v>
+        <v>1571</v>
       </c>
       <c r="E84" t="s">
         <v>36</v>
@@ -7938,13 +7926,13 @@
         <v>102</v>
       </c>
       <c r="B85" t="s">
-        <v>1588</v>
+        <v>1572</v>
       </c>
       <c r="C85" t="s">
-        <v>1457</v>
+        <v>1441</v>
       </c>
       <c r="M85" s="21" t="s">
-        <v>1589</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.2">
@@ -7952,13 +7940,13 @@
         <v>102</v>
       </c>
       <c r="B86" t="s">
-        <v>1590</v>
+        <v>1574</v>
       </c>
       <c r="C86" t="s">
         <v>46</v>
       </c>
       <c r="M86" s="21" t="s">
-        <v>1591</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.2">
@@ -7966,10 +7954,10 @@
         <v>45</v>
       </c>
       <c r="B87" t="s">
-        <v>1592</v>
+        <v>1576</v>
       </c>
       <c r="C87" t="s">
-        <v>1593</v>
+        <v>1577</v>
       </c>
       <c r="E87" t="s">
         <v>36</v>
@@ -7992,13 +7980,13 @@
         <v>1434</v>
       </c>
       <c r="B89" t="s">
-        <v>1594</v>
+        <v>1578</v>
       </c>
       <c r="C89" t="s">
-        <v>1595</v>
+        <v>1579</v>
       </c>
       <c r="D89" t="s">
-        <v>1596</v>
+        <v>1580</v>
       </c>
       <c r="E89" t="s">
         <v>36</v>
@@ -8021,13 +8009,13 @@
         <v>102</v>
       </c>
       <c r="B90" t="s">
-        <v>1705</v>
+        <v>1689</v>
       </c>
       <c r="C90" t="s">
-        <v>1457</v>
+        <v>1441</v>
       </c>
       <c r="M90" s="21" t="s">
-        <v>1703</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.2">
@@ -8035,13 +8023,13 @@
         <v>102</v>
       </c>
       <c r="B91" t="s">
-        <v>1706</v>
+        <v>1690</v>
       </c>
       <c r="C91" t="s">
         <v>46</v>
       </c>
       <c r="M91" s="21" t="s">
-        <v>1704</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.2">
@@ -8049,10 +8037,10 @@
         <v>45</v>
       </c>
       <c r="B92" t="s">
-        <v>1597</v>
+        <v>1581</v>
       </c>
       <c r="C92" t="s">
-        <v>1598</v>
+        <v>1582</v>
       </c>
       <c r="D92" t="s">
         <v>36</v>
@@ -8078,13 +8066,13 @@
         <v>1434</v>
       </c>
       <c r="B94" t="s">
-        <v>1599</v>
+        <v>1583</v>
       </c>
       <c r="C94" t="s">
-        <v>1600</v>
+        <v>1584</v>
       </c>
       <c r="D94" t="s">
-        <v>1601</v>
+        <v>1585</v>
       </c>
       <c r="E94" t="s">
         <v>36</v>
@@ -8107,13 +8095,13 @@
         <v>102</v>
       </c>
       <c r="B95" t="s">
-        <v>1602</v>
+        <v>1586</v>
       </c>
       <c r="C95" t="s">
-        <v>1457</v>
+        <v>1441</v>
       </c>
       <c r="M95" s="21" t="s">
-        <v>1603</v>
+        <v>1587</v>
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.2">
@@ -8121,13 +8109,13 @@
         <v>102</v>
       </c>
       <c r="B96" t="s">
-        <v>1604</v>
+        <v>1588</v>
       </c>
       <c r="C96" t="s">
         <v>46</v>
       </c>
       <c r="M96" s="21" t="s">
-        <v>1605</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.2">
@@ -8135,10 +8123,10 @@
         <v>45</v>
       </c>
       <c r="B97" t="s">
-        <v>1606</v>
+        <v>1590</v>
       </c>
       <c r="C97" t="s">
-        <v>1607</v>
+        <v>1591</v>
       </c>
       <c r="D97" t="s">
         <v>36</v>
@@ -8164,13 +8152,13 @@
         <v>1434</v>
       </c>
       <c r="B99" t="s">
-        <v>1608</v>
+        <v>1592</v>
       </c>
       <c r="C99" t="s">
-        <v>1609</v>
+        <v>1593</v>
       </c>
       <c r="D99" t="s">
-        <v>1610</v>
+        <v>1594</v>
       </c>
       <c r="E99" t="s">
         <v>36</v>
@@ -8193,13 +8181,13 @@
         <v>102</v>
       </c>
       <c r="B100" t="s">
-        <v>1611</v>
+        <v>1595</v>
       </c>
       <c r="C100" t="s">
-        <v>1457</v>
+        <v>1441</v>
       </c>
       <c r="M100" s="21" t="s">
-        <v>1612</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.2">
@@ -8207,13 +8195,13 @@
         <v>102</v>
       </c>
       <c r="B101" t="s">
-        <v>1613</v>
+        <v>1597</v>
       </c>
       <c r="C101" t="s">
-        <v>1614</v>
+        <v>1598</v>
       </c>
       <c r="M101" s="21" t="s">
-        <v>1615</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.2">
@@ -8221,10 +8209,10 @@
         <v>45</v>
       </c>
       <c r="B102" t="s">
-        <v>1616</v>
+        <v>1600</v>
       </c>
       <c r="C102" t="s">
-        <v>1617</v>
+        <v>1601</v>
       </c>
       <c r="D102" t="s">
         <v>36</v>
@@ -8250,13 +8238,13 @@
         <v>1434</v>
       </c>
       <c r="B104" t="s">
-        <v>1618</v>
+        <v>1602</v>
       </c>
       <c r="C104" t="s">
-        <v>1619</v>
+        <v>1603</v>
       </c>
       <c r="D104" t="s">
-        <v>1620</v>
+        <v>1604</v>
       </c>
       <c r="E104" t="s">
         <v>36</v>
@@ -8279,13 +8267,13 @@
         <v>102</v>
       </c>
       <c r="B105" t="s">
-        <v>1621</v>
+        <v>1605</v>
       </c>
       <c r="C105" t="s">
-        <v>1457</v>
+        <v>1441</v>
       </c>
       <c r="M105" s="21" t="s">
-        <v>1622</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.2">
@@ -8293,13 +8281,13 @@
         <v>102</v>
       </c>
       <c r="B106" t="s">
-        <v>1623</v>
+        <v>1607</v>
       </c>
       <c r="C106" t="s">
         <v>46</v>
       </c>
       <c r="M106" s="21" t="s">
-        <v>1624</v>
+        <v>1608</v>
       </c>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.2">
@@ -8307,10 +8295,10 @@
         <v>45</v>
       </c>
       <c r="B107" t="s">
-        <v>1625</v>
+        <v>1609</v>
       </c>
       <c r="C107" t="s">
-        <v>1626</v>
+        <v>1610</v>
       </c>
       <c r="D107" t="s">
         <v>36</v>
@@ -8336,13 +8324,13 @@
         <v>1434</v>
       </c>
       <c r="B109" t="s">
-        <v>1627</v>
+        <v>1611</v>
       </c>
       <c r="C109" t="s">
-        <v>1628</v>
+        <v>1612</v>
       </c>
       <c r="D109" t="s">
-        <v>1629</v>
+        <v>1613</v>
       </c>
       <c r="E109" t="s">
         <v>36</v>
@@ -8365,13 +8353,13 @@
         <v>102</v>
       </c>
       <c r="B110" t="s">
-        <v>1630</v>
+        <v>1614</v>
       </c>
       <c r="C110" t="s">
-        <v>1457</v>
+        <v>1441</v>
       </c>
       <c r="M110" s="21" t="s">
-        <v>1631</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.2">
@@ -8379,13 +8367,13 @@
         <v>102</v>
       </c>
       <c r="B111" t="s">
-        <v>1632</v>
+        <v>1616</v>
       </c>
       <c r="C111" t="s">
         <v>46</v>
       </c>
       <c r="M111" s="21" t="s">
-        <v>1633</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.2">
@@ -8393,10 +8381,10 @@
         <v>45</v>
       </c>
       <c r="B112" t="s">
-        <v>1634</v>
+        <v>1618</v>
       </c>
       <c r="C112" t="s">
-        <v>1635</v>
+        <v>1619</v>
       </c>
       <c r="D112" t="s">
         <v>36</v>
@@ -8422,13 +8410,13 @@
         <v>1434</v>
       </c>
       <c r="B114" t="s">
-        <v>1636</v>
+        <v>1620</v>
       </c>
       <c r="C114" t="s">
-        <v>1637</v>
+        <v>1621</v>
       </c>
       <c r="D114" t="s">
-        <v>1638</v>
+        <v>1622</v>
       </c>
       <c r="E114" t="s">
         <v>36</v>
@@ -8451,13 +8439,13 @@
         <v>102</v>
       </c>
       <c r="B115" t="s">
-        <v>1639</v>
+        <v>1623</v>
       </c>
       <c r="C115" t="s">
-        <v>1457</v>
+        <v>1441</v>
       </c>
       <c r="M115" s="21" t="s">
-        <v>1640</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.2">
@@ -8465,13 +8453,13 @@
         <v>102</v>
       </c>
       <c r="B116" t="s">
-        <v>1641</v>
+        <v>1625</v>
       </c>
       <c r="C116" t="s">
         <v>46</v>
       </c>
       <c r="M116" s="21" t="s">
-        <v>1642</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.2">
@@ -8479,10 +8467,10 @@
         <v>45</v>
       </c>
       <c r="B117" t="s">
-        <v>1643</v>
+        <v>1627</v>
       </c>
       <c r="C117" t="s">
-        <v>1644</v>
+        <v>1628</v>
       </c>
       <c r="D117" t="s">
         <v>36</v>
@@ -8508,13 +8496,13 @@
         <v>1434</v>
       </c>
       <c r="B119" t="s">
-        <v>1645</v>
+        <v>1629</v>
       </c>
       <c r="C119" t="s">
-        <v>1525</v>
+        <v>1509</v>
       </c>
       <c r="D119" t="s">
-        <v>1646</v>
+        <v>1630</v>
       </c>
       <c r="E119" t="s">
         <v>36</v>
@@ -8537,13 +8525,13 @@
         <v>102</v>
       </c>
       <c r="B120" t="s">
-        <v>1647</v>
+        <v>1631</v>
       </c>
       <c r="C120" t="s">
-        <v>1457</v>
+        <v>1441</v>
       </c>
       <c r="M120" s="21" t="s">
-        <v>1648</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.2">
@@ -8551,13 +8539,13 @@
         <v>102</v>
       </c>
       <c r="B121" t="s">
-        <v>1649</v>
+        <v>1633</v>
       </c>
       <c r="C121" t="s">
         <v>46</v>
       </c>
       <c r="M121" s="21" t="s">
-        <v>1650</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.2">
@@ -8565,10 +8553,10 @@
         <v>45</v>
       </c>
       <c r="B122" t="s">
-        <v>1651</v>
+        <v>1635</v>
       </c>
       <c r="C122" t="s">
-        <v>1652</v>
+        <v>1636</v>
       </c>
       <c r="D122" t="s">
         <v>36</v>
@@ -8594,13 +8582,13 @@
         <v>1434</v>
       </c>
       <c r="B124" t="s">
-        <v>1653</v>
+        <v>1637</v>
       </c>
       <c r="C124" t="s">
-        <v>1531</v>
+        <v>1515</v>
       </c>
       <c r="D124" t="s">
-        <v>1654</v>
+        <v>1638</v>
       </c>
       <c r="E124" t="s">
         <v>36</v>
@@ -8623,13 +8611,13 @@
         <v>102</v>
       </c>
       <c r="B125" t="s">
-        <v>1655</v>
+        <v>1639</v>
       </c>
       <c r="C125" t="s">
-        <v>1457</v>
+        <v>1441</v>
       </c>
       <c r="M125" s="21" t="s">
-        <v>1656</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.2">
@@ -8637,13 +8625,13 @@
         <v>102</v>
       </c>
       <c r="B126" t="s">
-        <v>1657</v>
+        <v>1641</v>
       </c>
       <c r="C126" t="s">
         <v>46</v>
       </c>
       <c r="M126" s="21" t="s">
-        <v>1658</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.2">
@@ -8651,10 +8639,10 @@
         <v>45</v>
       </c>
       <c r="B127" t="s">
-        <v>1659</v>
+        <v>1643</v>
       </c>
       <c r="C127" t="s">
-        <v>1660</v>
+        <v>1644</v>
       </c>
       <c r="D127" t="s">
         <v>36</v>
@@ -8680,13 +8668,13 @@
         <v>1434</v>
       </c>
       <c r="B129" t="s">
-        <v>1661</v>
+        <v>1645</v>
       </c>
       <c r="C129" t="s">
-        <v>1537</v>
+        <v>1521</v>
       </c>
       <c r="D129" t="s">
-        <v>1662</v>
+        <v>1646</v>
       </c>
       <c r="E129" t="s">
         <v>36</v>
@@ -8709,13 +8697,13 @@
         <v>102</v>
       </c>
       <c r="B130" t="s">
-        <v>1663</v>
+        <v>1647</v>
       </c>
       <c r="C130" t="s">
-        <v>1457</v>
+        <v>1441</v>
       </c>
       <c r="M130" s="21" t="s">
-        <v>1664</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="131" spans="1:13" x14ac:dyDescent="0.2">
@@ -8723,13 +8711,13 @@
         <v>102</v>
       </c>
       <c r="B131" t="s">
-        <v>1665</v>
+        <v>1649</v>
       </c>
       <c r="C131" t="s">
         <v>46</v>
       </c>
       <c r="M131" s="21" t="s">
-        <v>1666</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.2">
@@ -8737,10 +8725,10 @@
         <v>45</v>
       </c>
       <c r="B132" t="s">
-        <v>1667</v>
+        <v>1651</v>
       </c>
       <c r="C132" t="s">
-        <v>1668</v>
+        <v>1652</v>
       </c>
       <c r="D132" t="s">
         <v>36</v>
@@ -8766,13 +8754,13 @@
         <v>1434</v>
       </c>
       <c r="B134" t="s">
-        <v>1669</v>
+        <v>1653</v>
       </c>
       <c r="C134" t="s">
-        <v>1670</v>
+        <v>1654</v>
       </c>
       <c r="D134" t="s">
-        <v>1671</v>
+        <v>1655</v>
       </c>
       <c r="E134" t="s">
         <v>36</v>
@@ -8795,13 +8783,13 @@
         <v>102</v>
       </c>
       <c r="B135" t="s">
-        <v>1672</v>
+        <v>1656</v>
       </c>
       <c r="C135" t="s">
-        <v>1457</v>
+        <v>1441</v>
       </c>
       <c r="M135" s="21" t="s">
-        <v>1673</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="136" spans="1:13" x14ac:dyDescent="0.2">
@@ -8809,13 +8797,13 @@
         <v>102</v>
       </c>
       <c r="B136" t="s">
-        <v>1674</v>
+        <v>1658</v>
       </c>
       <c r="C136" t="s">
         <v>46</v>
       </c>
       <c r="M136" s="21" t="s">
-        <v>1675</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.2">
@@ -8823,10 +8811,10 @@
         <v>45</v>
       </c>
       <c r="B137" t="s">
-        <v>1676</v>
+        <v>1660</v>
       </c>
       <c r="C137" t="s">
-        <v>1677</v>
+        <v>1661</v>
       </c>
       <c r="D137" t="s">
         <v>36</v>
@@ -8852,13 +8840,13 @@
         <v>1434</v>
       </c>
       <c r="B139" t="s">
-        <v>1678</v>
+        <v>1662</v>
       </c>
       <c r="C139" t="s">
-        <v>1549</v>
+        <v>1533</v>
       </c>
       <c r="D139" t="s">
-        <v>1679</v>
+        <v>1663</v>
       </c>
       <c r="E139" t="s">
         <v>36</v>
@@ -8881,13 +8869,13 @@
         <v>102</v>
       </c>
       <c r="B140" t="s">
-        <v>1680</v>
+        <v>1664</v>
       </c>
       <c r="C140" t="s">
-        <v>1457</v>
+        <v>1441</v>
       </c>
       <c r="M140" s="21" t="s">
-        <v>1681</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="141" spans="1:13" x14ac:dyDescent="0.2">
@@ -8895,13 +8883,13 @@
         <v>102</v>
       </c>
       <c r="B141" t="s">
-        <v>1682</v>
+        <v>1666</v>
       </c>
       <c r="C141" t="s">
         <v>46</v>
       </c>
       <c r="M141" s="21" t="s">
-        <v>1683</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.2">
@@ -8909,10 +8897,10 @@
         <v>45</v>
       </c>
       <c r="B142" t="s">
-        <v>1684</v>
+        <v>1668</v>
       </c>
       <c r="C142" t="s">
-        <v>1685</v>
+        <v>1669</v>
       </c>
       <c r="D142" t="s">
         <v>36</v>
@@ -8938,10 +8926,10 @@
         <v>1434</v>
       </c>
       <c r="B144" t="s">
-        <v>1686</v>
+        <v>1670</v>
       </c>
       <c r="C144" t="s">
-        <v>1687</v>
+        <v>1671</v>
       </c>
       <c r="D144" t="s">
         <v>36</v>
@@ -8967,13 +8955,13 @@
         <v>102</v>
       </c>
       <c r="B145" t="s">
-        <v>1707</v>
+        <v>1691</v>
       </c>
       <c r="C145" t="s">
-        <v>1457</v>
+        <v>1441</v>
       </c>
       <c r="M145" s="21" t="s">
-        <v>1688</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="146" spans="1:13" x14ac:dyDescent="0.2">
@@ -8981,13 +8969,13 @@
         <v>102</v>
       </c>
       <c r="B146" t="s">
-        <v>1689</v>
+        <v>1673</v>
       </c>
       <c r="C146" t="s">
         <v>46</v>
       </c>
       <c r="M146" s="21" t="s">
-        <v>1690</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="147" spans="1:13" x14ac:dyDescent="0.2">
@@ -8995,10 +8983,10 @@
         <v>45</v>
       </c>
       <c r="B147" t="s">
-        <v>1691</v>
+        <v>1675</v>
       </c>
       <c r="C147" t="s">
-        <v>1692</v>
+        <v>1676</v>
       </c>
       <c r="D147" t="s">
         <v>36</v>
@@ -9024,13 +9012,13 @@
         <v>60</v>
       </c>
       <c r="B149" t="s">
-        <v>1693</v>
+        <v>1677</v>
       </c>
       <c r="C149" t="s">
-        <v>1694</v>
+        <v>1678</v>
       </c>
       <c r="M149" t="s">
-        <v>1695</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="150" spans="1:13" x14ac:dyDescent="0.2">
@@ -9038,13 +9026,13 @@
         <v>60</v>
       </c>
       <c r="B150" t="s">
-        <v>1696</v>
+        <v>1680</v>
       </c>
       <c r="C150" t="s">
-        <v>1697</v>
+        <v>1681</v>
       </c>
       <c r="M150" t="s">
-        <v>1698</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="151" spans="1:13" x14ac:dyDescent="0.2">
@@ -9052,13 +9040,13 @@
         <v>62</v>
       </c>
       <c r="B151" t="s">
-        <v>1699</v>
+        <v>1683</v>
       </c>
       <c r="C151" t="s">
-        <v>1700</v>
+        <v>1684</v>
       </c>
       <c r="M151" t="s">
-        <v>1864</v>
+        <v>1848</v>
       </c>
     </row>
     <row r="152" spans="1:13" x14ac:dyDescent="0.2">
@@ -9066,13 +9054,13 @@
         <v>60</v>
       </c>
       <c r="B152" t="s">
-        <v>1701</v>
+        <v>1685</v>
       </c>
       <c r="C152" t="s">
-        <v>1702</v>
+        <v>1686</v>
       </c>
       <c r="M152" t="s">
-        <v>1708</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="153" spans="1:13" x14ac:dyDescent="0.2">
@@ -9085,10 +9073,10 @@
         <v>43</v>
       </c>
       <c r="B156" t="s">
-        <v>1709</v>
+        <v>1693</v>
       </c>
       <c r="C156" t="s">
-        <v>1710</v>
+        <v>1694</v>
       </c>
       <c r="D156" t="s">
         <v>36</v>
@@ -9114,13 +9102,13 @@
         <v>1434</v>
       </c>
       <c r="B157" t="s">
-        <v>1711</v>
+        <v>1695</v>
       </c>
       <c r="C157" t="s">
-        <v>1712</v>
+        <v>1696</v>
       </c>
       <c r="D157" t="s">
-        <v>1713</v>
+        <v>1697</v>
       </c>
       <c r="E157" t="s">
         <v>36</v>
@@ -9143,13 +9131,13 @@
         <v>102</v>
       </c>
       <c r="B158" t="s">
-        <v>1714</v>
+        <v>1698</v>
       </c>
       <c r="C158" t="s">
-        <v>1457</v>
+        <v>1441</v>
       </c>
       <c r="M158" s="21" t="s">
-        <v>1715</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="159" spans="1:13" x14ac:dyDescent="0.2">
@@ -9157,13 +9145,13 @@
         <v>102</v>
       </c>
       <c r="B159" t="s">
-        <v>1716</v>
+        <v>1700</v>
       </c>
       <c r="C159" t="s">
         <v>46</v>
       </c>
       <c r="M159" s="21" t="s">
-        <v>1717</v>
+        <v>1701</v>
       </c>
     </row>
     <row r="160" spans="1:13" x14ac:dyDescent="0.2">
@@ -9171,10 +9159,10 @@
         <v>45</v>
       </c>
       <c r="B160" t="s">
-        <v>1718</v>
+        <v>1702</v>
       </c>
       <c r="C160" t="s">
-        <v>1719</v>
+        <v>1703</v>
       </c>
       <c r="D160" t="s">
         <v>36</v>
@@ -9200,13 +9188,13 @@
         <v>1434</v>
       </c>
       <c r="B162" t="s">
-        <v>1720</v>
+        <v>1704</v>
       </c>
       <c r="C162" t="s">
-        <v>1721</v>
+        <v>1705</v>
       </c>
       <c r="D162" t="s">
-        <v>1722</v>
+        <v>1706</v>
       </c>
       <c r="E162" t="s">
         <v>36</v>
@@ -9229,13 +9217,13 @@
         <v>102</v>
       </c>
       <c r="B163" t="s">
-        <v>1723</v>
+        <v>1707</v>
       </c>
       <c r="C163" t="s">
-        <v>1457</v>
+        <v>1441</v>
       </c>
       <c r="M163" s="21" t="s">
-        <v>1724</v>
+        <v>1708</v>
       </c>
     </row>
     <row r="164" spans="1:13" x14ac:dyDescent="0.2">
@@ -9243,13 +9231,13 @@
         <v>102</v>
       </c>
       <c r="B164" t="s">
-        <v>1725</v>
+        <v>1709</v>
       </c>
       <c r="C164" t="s">
         <v>46</v>
       </c>
       <c r="M164" s="21" t="s">
-        <v>1726</v>
+        <v>1710</v>
       </c>
     </row>
     <row r="165" spans="1:13" x14ac:dyDescent="0.2">
@@ -9257,10 +9245,10 @@
         <v>45</v>
       </c>
       <c r="B165" t="s">
-        <v>1727</v>
+        <v>1711</v>
       </c>
       <c r="C165" t="s">
-        <v>1728</v>
+        <v>1712</v>
       </c>
       <c r="D165" t="s">
         <v>36</v>
@@ -9286,13 +9274,13 @@
         <v>1434</v>
       </c>
       <c r="B167" t="s">
-        <v>1729</v>
+        <v>1713</v>
       </c>
       <c r="C167" t="s">
-        <v>1730</v>
+        <v>1714</v>
       </c>
       <c r="D167" t="s">
-        <v>1731</v>
+        <v>1715</v>
       </c>
       <c r="E167" t="s">
         <v>36</v>
@@ -9315,13 +9303,13 @@
         <v>102</v>
       </c>
       <c r="B168" t="s">
-        <v>1732</v>
+        <v>1716</v>
       </c>
       <c r="C168" t="s">
-        <v>1457</v>
+        <v>1441</v>
       </c>
       <c r="M168" s="21" t="s">
-        <v>1733</v>
+        <v>1717</v>
       </c>
     </row>
     <row r="169" spans="1:13" x14ac:dyDescent="0.2">
@@ -9329,13 +9317,13 @@
         <v>102</v>
       </c>
       <c r="B169" t="s">
-        <v>1734</v>
+        <v>1718</v>
       </c>
       <c r="C169" t="s">
         <v>46</v>
       </c>
       <c r="M169" s="21" t="s">
-        <v>1735</v>
+        <v>1719</v>
       </c>
     </row>
     <row r="170" spans="1:13" x14ac:dyDescent="0.2">
@@ -9343,10 +9331,10 @@
         <v>45</v>
       </c>
       <c r="B170" t="s">
-        <v>1736</v>
+        <v>1720</v>
       </c>
       <c r="C170" t="s">
-        <v>1737</v>
+        <v>1721</v>
       </c>
       <c r="D170" t="s">
         <v>36</v>
@@ -9372,13 +9360,13 @@
         <v>1434</v>
       </c>
       <c r="B172" t="s">
-        <v>1738</v>
+        <v>1722</v>
       </c>
       <c r="C172" t="s">
-        <v>1739</v>
+        <v>1723</v>
       </c>
       <c r="D172" t="s">
-        <v>1740</v>
+        <v>1724</v>
       </c>
       <c r="E172" t="s">
         <v>36</v>
@@ -9401,13 +9389,13 @@
         <v>102</v>
       </c>
       <c r="B173" t="s">
-        <v>1741</v>
+        <v>1725</v>
       </c>
       <c r="C173" t="s">
-        <v>1457</v>
+        <v>1441</v>
       </c>
       <c r="M173" s="21" t="s">
-        <v>1742</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="174" spans="1:13" x14ac:dyDescent="0.2">
@@ -9415,13 +9403,13 @@
         <v>102</v>
       </c>
       <c r="B174" t="s">
-        <v>1743</v>
+        <v>1727</v>
       </c>
       <c r="C174" t="s">
         <v>46</v>
       </c>
       <c r="M174" s="21" t="s">
-        <v>1744</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="175" spans="1:13" x14ac:dyDescent="0.2">
@@ -9429,10 +9417,10 @@
         <v>45</v>
       </c>
       <c r="B175" t="s">
-        <v>1745</v>
+        <v>1729</v>
       </c>
       <c r="C175" t="s">
-        <v>1746</v>
+        <v>1730</v>
       </c>
       <c r="D175" t="s">
         <v>36</v>
@@ -9458,13 +9446,13 @@
         <v>1434</v>
       </c>
       <c r="B177" t="s">
-        <v>1747</v>
+        <v>1731</v>
       </c>
       <c r="C177" t="s">
-        <v>1748</v>
+        <v>1732</v>
       </c>
       <c r="D177" t="s">
-        <v>1749</v>
+        <v>1733</v>
       </c>
       <c r="E177" t="s">
         <v>36</v>
@@ -9487,13 +9475,13 @@
         <v>102</v>
       </c>
       <c r="B178" t="s">
-        <v>1750</v>
+        <v>1734</v>
       </c>
       <c r="C178" t="s">
-        <v>1457</v>
+        <v>1441</v>
       </c>
       <c r="M178" s="21" t="s">
-        <v>1751</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="179" spans="1:13" x14ac:dyDescent="0.2">
@@ -9501,13 +9489,13 @@
         <v>102</v>
       </c>
       <c r="B179" t="s">
-        <v>1752</v>
+        <v>1736</v>
       </c>
       <c r="C179" t="s">
         <v>46</v>
       </c>
       <c r="M179" s="21" t="s">
-        <v>1753</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="180" spans="1:13" x14ac:dyDescent="0.2">
@@ -9515,10 +9503,10 @@
         <v>45</v>
       </c>
       <c r="B180" t="s">
-        <v>1754</v>
+        <v>1738</v>
       </c>
       <c r="C180" t="s">
-        <v>1755</v>
+        <v>1739</v>
       </c>
       <c r="D180" t="s">
         <v>36</v>
@@ -9544,13 +9532,13 @@
         <v>1434</v>
       </c>
       <c r="B182" t="s">
-        <v>1756</v>
+        <v>1740</v>
       </c>
       <c r="C182" t="s">
-        <v>1757</v>
+        <v>1741</v>
       </c>
       <c r="D182" t="s">
-        <v>1758</v>
+        <v>1742</v>
       </c>
       <c r="E182" t="s">
         <v>36</v>
@@ -9573,13 +9561,13 @@
         <v>102</v>
       </c>
       <c r="B183" t="s">
-        <v>1759</v>
+        <v>1743</v>
       </c>
       <c r="C183" t="s">
-        <v>1457</v>
+        <v>1441</v>
       </c>
       <c r="M183" s="21" t="s">
-        <v>1760</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="184" spans="1:13" x14ac:dyDescent="0.2">
@@ -9587,13 +9575,13 @@
         <v>102</v>
       </c>
       <c r="B184" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="C184" t="s">
         <v>46</v>
       </c>
       <c r="M184" s="21" t="s">
-        <v>1762</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="185" spans="1:13" x14ac:dyDescent="0.2">
@@ -9601,10 +9589,10 @@
         <v>45</v>
       </c>
       <c r="B185" t="s">
-        <v>1763</v>
+        <v>1747</v>
       </c>
       <c r="C185" t="s">
-        <v>1764</v>
+        <v>1748</v>
       </c>
       <c r="D185" t="s">
         <v>36</v>
@@ -9630,13 +9618,13 @@
         <v>1434</v>
       </c>
       <c r="B187" t="s">
-        <v>1765</v>
+        <v>1749</v>
       </c>
       <c r="C187" t="s">
-        <v>1766</v>
+        <v>1750</v>
       </c>
       <c r="D187" t="s">
-        <v>1767</v>
+        <v>1751</v>
       </c>
       <c r="E187" t="s">
         <v>36</v>
@@ -9659,13 +9647,13 @@
         <v>102</v>
       </c>
       <c r="B188" t="s">
-        <v>1768</v>
+        <v>1752</v>
       </c>
       <c r="C188" t="s">
-        <v>1457</v>
+        <v>1441</v>
       </c>
       <c r="M188" s="21" t="s">
-        <v>1769</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="189" spans="1:13" x14ac:dyDescent="0.2">
@@ -9673,13 +9661,13 @@
         <v>102</v>
       </c>
       <c r="B189" t="s">
-        <v>1862</v>
+        <v>1846</v>
       </c>
       <c r="C189" t="s">
         <v>46</v>
       </c>
       <c r="M189" s="21" t="s">
-        <v>1770</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="190" spans="1:13" x14ac:dyDescent="0.2">
@@ -9687,10 +9675,10 @@
         <v>45</v>
       </c>
       <c r="B190" t="s">
-        <v>1771</v>
+        <v>1755</v>
       </c>
       <c r="C190" t="s">
-        <v>1772</v>
+        <v>1756</v>
       </c>
       <c r="D190" t="s">
         <v>36</v>
@@ -9716,13 +9704,13 @@
         <v>1434</v>
       </c>
       <c r="B192" t="s">
-        <v>1773</v>
+        <v>1757</v>
       </c>
       <c r="C192" t="s">
-        <v>1774</v>
+        <v>1758</v>
       </c>
       <c r="D192" t="s">
-        <v>1775</v>
+        <v>1759</v>
       </c>
       <c r="E192" t="s">
         <v>36</v>
@@ -9745,13 +9733,13 @@
         <v>102</v>
       </c>
       <c r="B193" t="s">
-        <v>1776</v>
+        <v>1760</v>
       </c>
       <c r="C193" t="s">
-        <v>1457</v>
+        <v>1441</v>
       </c>
       <c r="M193" s="21" t="s">
-        <v>1777</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="194" spans="1:13" x14ac:dyDescent="0.2">
@@ -9759,13 +9747,13 @@
         <v>102</v>
       </c>
       <c r="B194" t="s">
-        <v>1778</v>
+        <v>1762</v>
       </c>
       <c r="C194" t="s">
         <v>46</v>
       </c>
       <c r="M194" s="21" t="s">
-        <v>1779</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="195" spans="1:13" x14ac:dyDescent="0.2">
@@ -9773,10 +9761,10 @@
         <v>45</v>
       </c>
       <c r="B195" t="s">
-        <v>1780</v>
+        <v>1764</v>
       </c>
       <c r="C195" t="s">
-        <v>1781</v>
+        <v>1765</v>
       </c>
       <c r="D195" t="s">
         <v>36</v>
@@ -9802,13 +9790,13 @@
         <v>1434</v>
       </c>
       <c r="B197" t="s">
-        <v>1782</v>
+        <v>1766</v>
       </c>
       <c r="C197" t="s">
-        <v>1783</v>
+        <v>1767</v>
       </c>
       <c r="D197" t="s">
-        <v>1784</v>
+        <v>1768</v>
       </c>
       <c r="E197" t="s">
         <v>36</v>
@@ -9831,13 +9819,13 @@
         <v>102</v>
       </c>
       <c r="B198" t="s">
-        <v>1785</v>
+        <v>1769</v>
       </c>
       <c r="C198" t="s">
-        <v>1457</v>
+        <v>1441</v>
       </c>
       <c r="M198" s="21" t="s">
-        <v>1786</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="199" spans="1:13" x14ac:dyDescent="0.2">
@@ -9845,13 +9833,13 @@
         <v>102</v>
       </c>
       <c r="B199" t="s">
-        <v>1863</v>
+        <v>1847</v>
       </c>
       <c r="C199" t="s">
         <v>46</v>
       </c>
       <c r="M199" s="21" t="s">
-        <v>1787</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="200" spans="1:13" x14ac:dyDescent="0.2">
@@ -9859,10 +9847,10 @@
         <v>45</v>
       </c>
       <c r="B200" t="s">
-        <v>1788</v>
+        <v>1772</v>
       </c>
       <c r="C200" t="s">
-        <v>1789</v>
+        <v>1773</v>
       </c>
       <c r="D200" t="s">
         <v>36</v>
@@ -9888,13 +9876,13 @@
         <v>1434</v>
       </c>
       <c r="B202" t="s">
-        <v>1790</v>
+        <v>1774</v>
       </c>
       <c r="C202" t="s">
-        <v>1513</v>
+        <v>1497</v>
       </c>
       <c r="D202" t="s">
-        <v>1791</v>
+        <v>1775</v>
       </c>
       <c r="E202" t="s">
         <v>36</v>
@@ -9917,13 +9905,13 @@
         <v>102</v>
       </c>
       <c r="B203" t="s">
-        <v>1792</v>
+        <v>1776</v>
       </c>
       <c r="C203" t="s">
-        <v>1457</v>
+        <v>1441</v>
       </c>
       <c r="M203" s="21" t="s">
-        <v>1793</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="204" spans="1:13" x14ac:dyDescent="0.2">
@@ -9931,13 +9919,13 @@
         <v>102</v>
       </c>
       <c r="B204" t="s">
-        <v>1794</v>
+        <v>1778</v>
       </c>
       <c r="C204" t="s">
         <v>46</v>
       </c>
       <c r="M204" s="21" t="s">
-        <v>1795</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="205" spans="1:13" x14ac:dyDescent="0.2">
@@ -9945,10 +9933,10 @@
         <v>45</v>
       </c>
       <c r="B205" t="s">
-        <v>1796</v>
+        <v>1780</v>
       </c>
       <c r="C205" t="s">
-        <v>1797</v>
+        <v>1781</v>
       </c>
       <c r="D205" t="s">
         <v>36</v>
@@ -9974,13 +9962,13 @@
         <v>1434</v>
       </c>
       <c r="B207" t="s">
-        <v>1798</v>
+        <v>1782</v>
       </c>
       <c r="C207" t="s">
-        <v>1799</v>
+        <v>1783</v>
       </c>
       <c r="D207" t="s">
-        <v>1800</v>
+        <v>1784</v>
       </c>
       <c r="E207" t="s">
         <v>36</v>
@@ -10003,13 +9991,13 @@
         <v>102</v>
       </c>
       <c r="B208" t="s">
-        <v>1801</v>
+        <v>1785</v>
       </c>
       <c r="C208" t="s">
-        <v>1457</v>
+        <v>1441</v>
       </c>
       <c r="M208" s="21" t="s">
-        <v>1802</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="209" spans="1:13" x14ac:dyDescent="0.2">
@@ -10017,13 +10005,13 @@
         <v>102</v>
       </c>
       <c r="B209" t="s">
-        <v>1803</v>
+        <v>1787</v>
       </c>
       <c r="C209" t="s">
         <v>46</v>
       </c>
       <c r="M209" s="21" t="s">
-        <v>1804</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="210" spans="1:13" x14ac:dyDescent="0.2">
@@ -10031,10 +10019,10 @@
         <v>45</v>
       </c>
       <c r="B210" t="s">
-        <v>1805</v>
+        <v>1789</v>
       </c>
       <c r="C210" t="s">
-        <v>1806</v>
+        <v>1790</v>
       </c>
       <c r="D210" t="s">
         <v>36</v>
@@ -10060,13 +10048,13 @@
         <v>1434</v>
       </c>
       <c r="B212" t="s">
-        <v>1807</v>
+        <v>1791</v>
       </c>
       <c r="C212" t="s">
-        <v>1808</v>
+        <v>1792</v>
       </c>
       <c r="D212" t="s">
-        <v>1809</v>
+        <v>1793</v>
       </c>
       <c r="E212" t="s">
         <v>36</v>
@@ -10089,13 +10077,13 @@
         <v>102</v>
       </c>
       <c r="B213" t="s">
-        <v>1810</v>
+        <v>1794</v>
       </c>
       <c r="C213" t="s">
-        <v>1457</v>
+        <v>1441</v>
       </c>
       <c r="M213" s="21" t="s">
-        <v>1811</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="214" spans="1:13" x14ac:dyDescent="0.2">
@@ -10103,13 +10091,13 @@
         <v>102</v>
       </c>
       <c r="B214" t="s">
-        <v>1812</v>
+        <v>1796</v>
       </c>
       <c r="C214" t="s">
         <v>46</v>
       </c>
       <c r="M214" s="21" t="s">
-        <v>1813</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="215" spans="1:13" x14ac:dyDescent="0.2">
@@ -10117,10 +10105,10 @@
         <v>45</v>
       </c>
       <c r="B215" t="s">
-        <v>1814</v>
+        <v>1798</v>
       </c>
       <c r="C215" t="s">
-        <v>1815</v>
+        <v>1799</v>
       </c>
       <c r="D215" t="s">
         <v>36</v>
@@ -10146,13 +10134,13 @@
         <v>1434</v>
       </c>
       <c r="B217" t="s">
-        <v>1816</v>
+        <v>1800</v>
       </c>
       <c r="C217" t="s">
-        <v>1817</v>
+        <v>1801</v>
       </c>
       <c r="D217" t="s">
-        <v>1818</v>
+        <v>1802</v>
       </c>
       <c r="E217" t="s">
         <v>36</v>
@@ -10175,13 +10163,13 @@
         <v>102</v>
       </c>
       <c r="B218" t="s">
-        <v>1819</v>
+        <v>1803</v>
       </c>
       <c r="C218" t="s">
-        <v>1457</v>
+        <v>1441</v>
       </c>
       <c r="M218" s="21" t="s">
-        <v>1820</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="219" spans="1:13" x14ac:dyDescent="0.2">
@@ -10189,13 +10177,13 @@
         <v>102</v>
       </c>
       <c r="B219" t="s">
-        <v>1821</v>
+        <v>1805</v>
       </c>
       <c r="C219" t="s">
         <v>46</v>
       </c>
       <c r="M219" s="21" t="s">
-        <v>1822</v>
+        <v>1806</v>
       </c>
     </row>
     <row r="220" spans="1:13" x14ac:dyDescent="0.2">
@@ -10203,10 +10191,10 @@
         <v>45</v>
       </c>
       <c r="B220" t="s">
-        <v>1823</v>
+        <v>1807</v>
       </c>
       <c r="C220" t="s">
-        <v>1824</v>
+        <v>1808</v>
       </c>
       <c r="D220" t="s">
         <v>36</v>
@@ -10232,13 +10220,13 @@
         <v>1434</v>
       </c>
       <c r="B222" t="s">
-        <v>1825</v>
+        <v>1809</v>
       </c>
       <c r="C222" t="s">
-        <v>1826</v>
+        <v>1810</v>
       </c>
       <c r="D222" t="s">
-        <v>1827</v>
+        <v>1811</v>
       </c>
       <c r="E222" t="s">
         <v>36</v>
@@ -10261,13 +10249,13 @@
         <v>102</v>
       </c>
       <c r="B223" t="s">
-        <v>1828</v>
+        <v>1812</v>
       </c>
       <c r="C223" t="s">
-        <v>1457</v>
+        <v>1441</v>
       </c>
       <c r="M223" s="21" t="s">
-        <v>1829</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="224" spans="1:13" x14ac:dyDescent="0.2">
@@ -10275,13 +10263,13 @@
         <v>102</v>
       </c>
       <c r="B224" t="s">
-        <v>1830</v>
+        <v>1814</v>
       </c>
       <c r="C224" t="s">
         <v>46</v>
       </c>
       <c r="M224" s="21" t="s">
-        <v>1831</v>
+        <v>1815</v>
       </c>
     </row>
     <row r="225" spans="1:13" x14ac:dyDescent="0.2">
@@ -10289,10 +10277,10 @@
         <v>45</v>
       </c>
       <c r="B225" t="s">
-        <v>1832</v>
+        <v>1816</v>
       </c>
       <c r="C225" t="s">
-        <v>1833</v>
+        <v>1817</v>
       </c>
       <c r="D225" t="s">
         <v>36</v>
@@ -10318,13 +10306,13 @@
         <v>1434</v>
       </c>
       <c r="B227" t="s">
-        <v>1834</v>
+        <v>1818</v>
       </c>
       <c r="C227" t="s">
-        <v>1835</v>
+        <v>1819</v>
       </c>
       <c r="D227" t="s">
-        <v>1836</v>
+        <v>1820</v>
       </c>
       <c r="E227" t="s">
         <v>36</v>
@@ -10347,13 +10335,13 @@
         <v>102</v>
       </c>
       <c r="B228" t="s">
-        <v>1837</v>
+        <v>1821</v>
       </c>
       <c r="C228" t="s">
-        <v>1457</v>
+        <v>1441</v>
       </c>
       <c r="M228" s="21" t="s">
-        <v>1838</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="229" spans="1:13" x14ac:dyDescent="0.2">
@@ -10361,13 +10349,13 @@
         <v>102</v>
       </c>
       <c r="B229" t="s">
-        <v>1839</v>
+        <v>1823</v>
       </c>
       <c r="C229" t="s">
         <v>46</v>
       </c>
       <c r="M229" s="21" t="s">
-        <v>1840</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="230" spans="1:13" x14ac:dyDescent="0.2">
@@ -10375,10 +10363,10 @@
         <v>45</v>
       </c>
       <c r="B230" t="s">
-        <v>1841</v>
+        <v>1825</v>
       </c>
       <c r="C230" t="s">
-        <v>1842</v>
+        <v>1826</v>
       </c>
       <c r="D230" t="s">
         <v>36</v>
@@ -10404,10 +10392,10 @@
         <v>1434</v>
       </c>
       <c r="B232" t="s">
-        <v>1843</v>
+        <v>1827</v>
       </c>
       <c r="C232" t="s">
-        <v>1844</v>
+        <v>1828</v>
       </c>
       <c r="D232" t="s">
         <v>36</v>
@@ -10433,13 +10421,13 @@
         <v>102</v>
       </c>
       <c r="B233" t="s">
-        <v>1845</v>
+        <v>1829</v>
       </c>
       <c r="C233" t="s">
-        <v>1457</v>
+        <v>1441</v>
       </c>
       <c r="M233" s="21" t="s">
-        <v>1846</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="234" spans="1:13" x14ac:dyDescent="0.2">
@@ -10447,13 +10435,13 @@
         <v>102</v>
       </c>
       <c r="B234" t="s">
-        <v>1847</v>
+        <v>1831</v>
       </c>
       <c r="C234" t="s">
         <v>46</v>
       </c>
       <c r="M234" s="21" t="s">
-        <v>1848</v>
+        <v>1832</v>
       </c>
     </row>
     <row r="235" spans="1:13" x14ac:dyDescent="0.2">
@@ -10461,10 +10449,10 @@
         <v>45</v>
       </c>
       <c r="B235" t="s">
-        <v>1849</v>
+        <v>1833</v>
       </c>
       <c r="C235" t="s">
-        <v>1850</v>
+        <v>1834</v>
       </c>
       <c r="D235" t="s">
         <v>36</v>
@@ -10490,13 +10478,13 @@
         <v>60</v>
       </c>
       <c r="B237" t="s">
-        <v>1851</v>
+        <v>1835</v>
       </c>
       <c r="C237" t="s">
-        <v>1852</v>
+        <v>1836</v>
       </c>
       <c r="M237" t="s">
-        <v>1853</v>
+        <v>1837</v>
       </c>
     </row>
     <row r="238" spans="1:13" x14ac:dyDescent="0.2">
@@ -10504,13 +10492,13 @@
         <v>60</v>
       </c>
       <c r="B238" t="s">
-        <v>1854</v>
+        <v>1838</v>
       </c>
       <c r="C238" t="s">
-        <v>1855</v>
+        <v>1839</v>
       </c>
       <c r="M238" t="s">
-        <v>1856</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="239" spans="1:13" x14ac:dyDescent="0.2">
@@ -10518,13 +10506,13 @@
         <v>62</v>
       </c>
       <c r="B239" t="s">
-        <v>1857</v>
+        <v>1841</v>
       </c>
       <c r="C239" t="s">
-        <v>1858</v>
+        <v>1842</v>
       </c>
       <c r="M239" t="s">
-        <v>1866</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="240" spans="1:13" x14ac:dyDescent="0.2">
@@ -10532,13 +10520,13 @@
         <v>60</v>
       </c>
       <c r="B240" t="s">
-        <v>1859</v>
+        <v>1843</v>
       </c>
       <c r="C240" t="s">
-        <v>1860</v>
+        <v>1844</v>
       </c>
       <c r="M240" t="s">
-        <v>1861</v>
+        <v>1845</v>
       </c>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.2">
@@ -10734,7 +10722,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>1453</v>
+        <v>1437</v>
       </c>
       <c r="D5" t="s">
         <v>36</v>
@@ -10751,7 +10739,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>1454</v>
+        <v>1438</v>
       </c>
       <c r="D6" t="s">
         <v>36</v>
@@ -10768,7 +10756,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>1455</v>
+        <v>1439</v>
       </c>
       <c r="D7" t="s">
         <v>36</v>
@@ -10785,7 +10773,7 @@
         <v>-2</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>1459</v>
+        <v>1443</v>
       </c>
       <c r="D8" t="s">
         <v>36</v>
@@ -16850,7 +16838,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -16890,7 +16878,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1867</v>
+        <v>1851</v>
       </c>
       <c r="B2" t="s">
         <v>58</v>

--- a/Toolbox_Infrastruktur_Fussverkehrstest/FussverkehrstestApp/Querung.xlsx
+++ b/Toolbox_Infrastruktur_Fussverkehrstest/FussverkehrstestApp/Querung.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11011"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D43FBFE2-3162-8D4B-9C9E-771B62F45473}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FC317E8-4F0F-3F43-AA7F-8D28CC797E1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7640" yWindow="460" windowWidth="39780" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4276" uniqueCount="1865">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4288" uniqueCount="1874">
   <si>
     <t>type</t>
   </si>
@@ -5620,6 +5620,33 @@
   </si>
   <si>
     <t>unmittelbar an der Querung vorhanden = 2P, bis 3m entfernt = 1P, darüber = 0P</t>
+  </si>
+  <si>
+    <t>total_max_point</t>
+  </si>
+  <si>
+    <t>Strassen-Querung: Maximal erreichbare Punktzahl</t>
+  </si>
+  <si>
+    <t>${querung_ohne_lsa_max_point}+${querung_mit_lsa_max_point}+${querung_mit_uf_max_point}</t>
+  </si>
+  <si>
+    <t>total_total</t>
+  </si>
+  <si>
+    <t>Strassen-Querung: Erreichte Punktzahl</t>
+  </si>
+  <si>
+    <t>total_achieved</t>
+  </si>
+  <si>
+    <t>Strassen-Querung : % erreichte Anforderungen</t>
+  </si>
+  <si>
+    <t>(${total_total} div ${total_max_point})*100</t>
+  </si>
+  <si>
+    <t>if(${querung_ohne_lsa_total}=NaN,0,${querung_ohne_lsa_total})+if(${querung_mit_lsa_total}=NaN,0,${querung_mit_lsa_total})+if(${querung_mit_uf_total}=NaN,0,${querung_mit_uf_total})</t>
   </si>
 </sst>
 </file>
@@ -6067,11 +6094,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF241"/>
+  <dimension ref="A1:AF245"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D71" sqref="D71"/>
+    <sheetView tabSelected="1" topLeftCell="A206" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="L1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="L255" sqref="L255"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10529,9 +10556,51 @@
         <v>1845</v>
       </c>
     </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>48</v>
+      </c>
+    </row>
+    <row r="243" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A243" t="s">
+        <v>60</v>
+      </c>
+      <c r="B243" t="s">
+        <v>1865</v>
+      </c>
+      <c r="C243" t="s">
+        <v>1866</v>
+      </c>
+      <c r="M243" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="244" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A244" t="s">
+        <v>60</v>
+      </c>
+      <c r="B244" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C244" t="s">
+        <v>1869</v>
+      </c>
+      <c r="M244" t="s">
+        <v>1873</v>
+      </c>
+    </row>
+    <row r="245" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A245" t="s">
+        <v>62</v>
+      </c>
+      <c r="B245" t="s">
+        <v>1870</v>
+      </c>
+      <c r="C245" t="s">
+        <v>1871</v>
+      </c>
+      <c r="M245" t="s">
+        <v>1872</v>
       </c>
     </row>
   </sheetData>
@@ -10547,7 +10616,7 @@
       <formula1>AND(LEN(B1)=LEN(SUBSTITUTE(B1," ","")),LEN(B1)&lt;32,COUNTIF(Reserved,B1) = 0,SUMPRODUCT(--ISNUMBER(SEARCH(Special,B1)))=0)</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Constraint Message" prompt="When the constraint conditions are not met, this message will appear to prompt a valid answer (e.g., Please enter a value from 0-100)." sqref="F1:F9 F11:F14 F66:F69 F16:F19 F21:F24 F26:F29 F31:F34 F36:F39 F41:F44 F46:F49 F51:F54 F56:F59 F61:F64 F71:F1048576" xr:uid="{00000000-0002-0000-0000-000008000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Default" prompt="Set the default value for this field. This will pre-populate the survey with the default value. This can either be used to save time by supplying a commonly used answer or by showing what type of answer choice is expected." sqref="J1:J9 J11:J14 J66:J69 J16:J19 J21:J24 J26:J29 J31:J34 J36:J39 J41:J44 J46:J49 J51:J54 J56:J59 J61:J64 J71:J1048576" xr:uid="{00000000-0002-0000-0000-000009000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Default" prompt="Set the default value for this field. This will pre-populate the survey with the default value. This can either be used to save time by supplying a commonly used answer or by showing what type of answer choice is expected." sqref="J1:J9 J11:J14 J66:J69 J16:J19 J21:J24 J26:J29 J31:J34 J36:J39 J41:J44 J46:J49 J51:J54 J56:J59 J61:J64 M243:M245 J71:J242 J246:J1048576" xr:uid="{00000000-0002-0000-0000-000009000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Relevant" prompt="This gives you the ability to skip questions or make additional questions appear based on the response to a previous question. A question is made relevant by meeting the conditions in the relevant field (e.g., ${name} = 'value')." sqref="L1:L9 L11:L14 L66:L69 L16:L19 L21:L24 L26:L29 L31:L34 L36:L39 L41:L44 L46:L49 L51:L54 L56:L59 L61:L64 L71:L1048576" xr:uid="{00000000-0002-0000-0000-00000A000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="media::image" prompt="Copy your image file to the 'media' subfolder for your project and enter the name of your image file here (e.g., image.jpg)." sqref="S1:S9 S11:S14 S66:S69 S16:S19 S21:S24 S26:S29 S31:S34 S36:S39 S41:S44 S46:S49 S51:S54 S56:S59 S61:S64 S71:S1048576" xr:uid="{00000000-0002-0000-0000-00000B000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Localization - Label" prompt="Enter translations for your survey questions here. Include any further translations by creating a new column (e.g., label::Español (es)). The list of languages will appear in a drop-down menu on the survey." sqref="P1:P9 P11:P14 P66:P69 P16:P19 P21:P24 P26:P29 P31:P34 P36:P39 P41:P44 P46:P49 P51:P54 P56:P59 P61:P64 P71:P1048576" xr:uid="{00000000-0002-0000-0000-00000C000000}"/>
